--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="272">
   <si>
     <t>Property</t>
   </si>
@@ -284,7 +284,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -638,6 +638,10 @@
   </si>
   <si>
     <t>Medication.ingredient.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3144,13 +3148,13 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3201,7 +3205,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3219,7 +3223,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3230,7 +3234,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3256,10 +3260,10 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3298,17 +3302,17 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3337,10 +3341,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>76</v>
@@ -3362,13 +3366,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3419,7 +3423,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3428,7 +3432,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>136</v>
@@ -3448,11 +3452,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3474,10 +3478,10 @@
         <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>134</v>
@@ -3532,7 +3536,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3561,7 +3565,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3587,16 +3591,16 @@
         <v>149</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3645,7 +3649,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>85</v>
@@ -3663,18 +3667,18 @@
         <v>155</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3697,17 +3701,17 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -3756,7 +3760,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3774,7 +3778,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3785,7 +3789,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3811,13 +3815,13 @@
         <v>184</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3867,7 +3871,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -3882,7 +3886,7 @@
         <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>188</v>
@@ -3891,12 +3895,12 @@
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3919,13 +3923,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3976,7 +3980,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -3994,7 +3998,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4005,7 +4009,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4034,7 +4038,7 @@
         <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>134</v>
@@ -4075,19 +4079,19 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4105,7 +4109,7 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4116,10 +4120,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>76</v>
@@ -4141,13 +4145,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4198,7 +4202,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4227,7 +4231,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4250,13 +4254,13 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4307,7 +4311,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4325,7 +4329,7 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4336,7 +4340,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4359,13 +4363,13 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4416,7 +4420,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4434,7 +4438,7 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4445,7 +4449,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4471,10 +4475,10 @@
         <v>190</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4525,7 +4529,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4543,7 +4547,7 @@
         <v>171</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4554,7 +4558,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4577,13 +4581,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4634,7 +4638,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4652,7 +4656,7 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4663,7 +4667,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4692,7 +4696,7 @@
         <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>134</v>
@@ -4745,7 +4749,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -4763,7 +4767,7 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4774,11 +4778,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4800,10 +4804,10 @@
         <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>134</v>
@@ -4858,7 +4862,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -4887,7 +4891,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4910,16 +4914,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4969,7 +4973,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -4993,12 +4997,12 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5021,13 +5025,13 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5078,7 +5082,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5096,13 +5100,13 @@
         <v>171</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="275">
   <si>
     <t>Property</t>
   </si>
@@ -550,7 +550,7 @@
     <t>Medication.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
 </t>
   </si>
   <si>
@@ -602,7 +602,7 @@
     <t>Medication.amount</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio}
 </t>
   </si>
   <si>
@@ -615,7 +615,15 @@
     <t>比率（Ratio)を表すデータ型は、量(Quantity)と共通単位を使って適切に表現できないときのみに使われるべきである。分母が"1"に固定されているとわかっているような場合は、量(Quantity)を比率(Ratio)の代わりに使うべきである。</t>
   </si>
   <si>
-    <t>.quantity</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
   </si>
   <si>
     <t>Medication.ingredient</t>
@@ -685,10 +693,6 @@
     <t>RP内の薬剤の連番</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Medication.ingredient.modifierExtension</t>
   </si>
   <si>
@@ -760,12 +764,6 @@
     <t>Ratioデータ型は2つの数字の関係で示され、Quantityや一般的な単位で適切に表現できない関係を表すときにのみ用いられる。分母の値が「1」で固定されているような値であれば、QuantityがRatioの代わりに用いられるべきである。</t>
   </si>
   <si>
-    <t>//element(*,DrugCodedType)/Strength</t>
-  </si>
-  <si>
-    <t>RXC-3-Component Amount &amp; RXC-4-Component Units  if medication: RXO-2-Requested Give Amount - Minimum &amp; RXO-4-Requested Give Units / RXO-3-Requested Give Amount - Maximum &amp; RXO-4-Requested Give Units / RXO-11-Requested Dispense Amount &amp; RXO-12-Requested Dispense Units / RXE-3-Give Amount - Minimum &amp; RXE-5-Give Units / RXE-4-Give Amount - Maximum &amp; RXE-5-Give Units / RXE-10-Dispense Amount &amp; RXE-10-Dispense Units</t>
-  </si>
-  <si>
     <t>Medication.ingredient.strength.id</t>
   </si>
   <si>
@@ -788,29 +786,43 @@
     <t>力価区分</t>
   </si>
   <si>
-    <t>投与量が製剤単位か成分単位かを格納する拡張</t>
+    <t>投与量が製剤単位か成分単位かを格納する</t>
   </si>
   <si>
     <t>Medication.ingredient.strength.numerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationQuantity}
+</t>
+  </si>
+  <si>
+    <t>投与量</t>
+  </si>
+  <si>
+    <t>薬剤に関する数量と単位を定めたデータイプ</t>
+  </si>
+  <si>
+    <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>Ratio.numerator</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.denominator</t>
   </si>
   <si>
     <t xml:space="preserve">Quantity
 </t>
-  </si>
-  <si>
-    <t>Numerator value</t>
-  </si>
-  <si>
-    <t>The value of the numerator.</t>
-  </si>
-  <si>
-    <t>Ratio.numerator</t>
-  </si>
-  <si>
-    <t>.numerator</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.strength.denominator</t>
   </si>
   <si>
     <t>Denominator value</t>
@@ -1231,7 +1243,7 @@
     <col min="36" max="36" width="195.5390625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="98.9296875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="173.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2923,7 +2935,7 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>184</v>
@@ -2994,27 +3006,27 @@
         <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3037,16 +3049,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3096,7 +3108,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3114,7 +3126,7 @@
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3125,7 +3137,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3148,13 +3160,13 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3205,7 +3217,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3223,7 +3235,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3234,7 +3246,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3260,10 +3272,10 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3302,17 +3314,17 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3341,10 +3353,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>76</v>
@@ -3366,13 +3378,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3423,7 +3435,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3432,7 +3444,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>136</v>
@@ -3452,11 +3464,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3478,10 +3490,10 @@
         <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>134</v>
@@ -3536,7 +3548,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3565,7 +3577,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3591,16 +3603,16 @@
         <v>149</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3649,7 +3661,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>85</v>
@@ -3667,18 +3679,18 @@
         <v>155</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3701,17 +3713,17 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -3760,7 +3772,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3778,7 +3790,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3789,7 +3801,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3815,13 +3827,13 @@
         <v>184</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3871,7 +3883,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -3880,27 +3892,27 @@
         <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3923,13 +3935,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3980,7 +3992,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -3998,7 +4010,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4009,7 +4021,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4038,7 +4050,7 @@
         <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>134</v>
@@ -4079,19 +4091,19 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4109,7 +4121,7 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4120,10 +4132,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>76</v>
@@ -4145,13 +4157,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4202,7 +4214,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4211,7 +4223,7 @@
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>136</v>
@@ -4231,7 +4243,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4251,18 +4263,20 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4320,27 +4334,27 @@
         <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4363,13 +4377,13 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4420,7 +4434,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4438,7 +4452,7 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4449,7 +4463,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4472,13 +4486,13 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4529,7 +4543,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4547,7 +4561,7 @@
         <v>171</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4558,7 +4572,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4581,13 +4595,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4638,7 +4652,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4656,7 +4670,7 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4667,7 +4681,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4696,7 +4710,7 @@
         <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>134</v>
@@ -4749,7 +4763,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -4767,7 +4781,7 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4778,11 +4792,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4804,10 +4818,10 @@
         <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>134</v>
@@ -4862,7 +4876,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -4891,7 +4905,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4914,16 +4928,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4973,7 +4987,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -4997,12 +5011,12 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5025,13 +5039,13 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5082,7 +5096,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5100,13 +5114,13 @@
         <v>171</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="272">
   <si>
     <t>Property</t>
   </si>
@@ -602,7 +602,7 @@
     <t>Medication.amount</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio}
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_Amount}
 </t>
   </si>
   <si>
@@ -786,7 +786,7 @@
     <t>力価区分</t>
   </si>
   <si>
-    <t>投与量が製剤単位か成分単位かを格納する</t>
+    <t>投与量が製剤単位か成分単位かを格納する拡張</t>
   </si>
   <si>
     <t>Medication.ingredient.strength.numerator</t>
@@ -821,20 +821,10 @@
     <t>Medication.ingredient.strength.denominator</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>Denominator value</t>
-  </si>
-  <si>
-    <t>The value of the denominator.</t>
+    <t>パッケージ量</t>
   </si>
   <si>
     <t>Ratio.denominator</t>
-  </si>
-  <si>
-    <t>.denominator</t>
   </si>
   <si>
     <t>Medication.batch</t>
@@ -4374,18 +4364,20 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -4434,7 +4426,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4443,27 +4435,27 @@
         <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4489,10 +4481,10 @@
         <v>192</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4543,7 +4535,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4561,7 +4553,7 @@
         <v>171</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4572,7 +4564,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4681,7 +4673,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4792,7 +4784,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4905,7 +4897,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4931,13 +4923,13 @@
         <v>198</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4987,7 +4979,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5011,12 +5003,12 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5039,13 +5031,13 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5096,7 +5088,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5114,13 +5106,13 @@
         <v>171</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medication.xlsx
@@ -4213,7 +4213,7 @@
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>136</v>
